--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il34</t>
+  </si>
+  <si>
+    <t>Csf1r</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il34</t>
-  </si>
-  <si>
-    <t>Csf1r</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H2">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I2">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J2">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N2">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O2">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P2">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q2">
-        <v>0.2253079442998889</v>
+        <v>14.983006133394</v>
       </c>
       <c r="R2">
-        <v>2.027771498699</v>
+        <v>134.847055200546</v>
       </c>
       <c r="S2">
-        <v>3.964583720120805E-05</v>
+        <v>0.003109149552237951</v>
       </c>
       <c r="T2">
-        <v>3.964583720120804E-05</v>
+        <v>0.003109149552237951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H3">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I3">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J3">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.999305</v>
       </c>
       <c r="O3">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P3">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q3">
-        <v>0.782790774535</v>
+        <v>3.30366535499</v>
       </c>
       <c r="R3">
-        <v>7.045116970815</v>
+        <v>29.73298819491</v>
       </c>
       <c r="S3">
-        <v>0.0001377421275856782</v>
+        <v>0.0006855493195266041</v>
       </c>
       <c r="T3">
-        <v>0.0001377421275856782</v>
+        <v>0.0006855493195266041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H4">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I4">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J4">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N4">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O4">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P4">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q4">
-        <v>241.0121225376696</v>
+        <v>765.7135161205661</v>
       </c>
       <c r="R4">
-        <v>2169.109102839026</v>
+        <v>6891.421645085094</v>
       </c>
       <c r="S4">
-        <v>0.04240918980170538</v>
+        <v>0.1588945378913435</v>
       </c>
       <c r="T4">
-        <v>0.04240918980170538</v>
+        <v>0.1588945378913435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H5">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I5">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J5">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N5">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O5">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P5">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q5">
-        <v>1.442176710752778</v>
+        <v>5.888804708043112</v>
       </c>
       <c r="R5">
-        <v>12.979590396775</v>
+        <v>52.999242372388</v>
       </c>
       <c r="S5">
-        <v>0.000253769583081259</v>
+        <v>0.001221996063955527</v>
       </c>
       <c r="T5">
-        <v>0.0002537695830812589</v>
+        <v>0.001221996063955526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H6">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I6">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J6">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N6">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O6">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P6">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q6">
-        <v>78.927731904357</v>
+        <v>318.0170462351451</v>
       </c>
       <c r="R6">
-        <v>710.3495871392131</v>
+        <v>2862.153416116306</v>
       </c>
       <c r="S6">
-        <v>0.01388835187087664</v>
+        <v>0.06599226804708379</v>
       </c>
       <c r="T6">
-        <v>0.01388835187087664</v>
+        <v>0.06599226804708379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H7">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I7">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J7">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N7">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O7">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P7">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q7">
-        <v>286.4339645695895</v>
+        <v>527.4152192287073</v>
       </c>
       <c r="R7">
-        <v>2577.905681126305</v>
+        <v>4746.736973058366</v>
       </c>
       <c r="S7">
-        <v>0.05040174843150499</v>
+        <v>0.1094448455876698</v>
       </c>
       <c r="T7">
-        <v>0.05040174843150498</v>
+        <v>0.1094448455876698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>6.496648</v>
       </c>
       <c r="I8">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J8">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N8">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O8">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P8">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q8">
-        <v>0.4153906201715555</v>
+        <v>6.545288403576</v>
       </c>
       <c r="R8">
-        <v>3.738515581544</v>
+        <v>58.907595632184</v>
       </c>
       <c r="S8">
-        <v>7.309333434026836E-05</v>
+        <v>0.001358224132598467</v>
       </c>
       <c r="T8">
-        <v>7.309333434026836E-05</v>
+        <v>0.001358224132598467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>6.496648</v>
       </c>
       <c r="I9">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J9">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.999305</v>
       </c>
       <c r="O9">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P9">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q9">
         <v>1.44319786996</v>
@@ -1013,10 +1013,10 @@
         <v>12.98878082964</v>
       </c>
       <c r="S9">
-        <v>0.000253949269207338</v>
+        <v>0.0002994804895111167</v>
       </c>
       <c r="T9">
-        <v>0.000253949269207338</v>
+        <v>0.0002994804895111167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>6.496648</v>
       </c>
       <c r="I10">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J10">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N10">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O10">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P10">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q10">
-        <v>444.3437418990063</v>
+        <v>334.500016412264</v>
       </c>
       <c r="R10">
-        <v>3999.093677091057</v>
+        <v>3010.500147710376</v>
       </c>
       <c r="S10">
-        <v>0.07818800933737113</v>
+        <v>0.06941267773586576</v>
       </c>
       <c r="T10">
-        <v>0.07818800933737113</v>
+        <v>0.06941267773586576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>6.496648</v>
       </c>
       <c r="I11">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J11">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N11">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O11">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P11">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q11">
-        <v>2.658879517711111</v>
+        <v>2.572509469950222</v>
       </c>
       <c r="R11">
-        <v>23.9299156594</v>
+        <v>23.152585229552</v>
       </c>
       <c r="S11">
-        <v>0.0004678641262488908</v>
+        <v>0.0005338258955121857</v>
       </c>
       <c r="T11">
-        <v>0.0004678641262488908</v>
+        <v>0.0005338258955121857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>6.496648</v>
       </c>
       <c r="I12">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J12">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N12">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O12">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P12">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q12">
-        <v>145.515683463192</v>
+        <v>138.9249437883582</v>
       </c>
       <c r="R12">
-        <v>1309.641151168728</v>
+        <v>1250.324494095224</v>
       </c>
       <c r="S12">
-        <v>0.02560536032020899</v>
+        <v>0.02882855569361049</v>
       </c>
       <c r="T12">
-        <v>0.02560536032020899</v>
+        <v>0.02882855569361049</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>6.496648</v>
       </c>
       <c r="I13">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J13">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N13">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O13">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P13">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q13">
-        <v>528.0860492978978</v>
+        <v>230.4000070181627</v>
       </c>
       <c r="R13">
-        <v>4752.774443681081</v>
+        <v>2073.600063163464</v>
       </c>
       <c r="S13">
-        <v>0.09292354783028355</v>
+        <v>0.04781070449270861</v>
       </c>
       <c r="T13">
-        <v>0.09292354783028353</v>
+        <v>0.04781070449270861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H14">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I14">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J14">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N14">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O14">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P14">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q14">
-        <v>0.018102600474</v>
+        <v>0.094035814119</v>
       </c>
       <c r="R14">
-        <v>0.162923404266</v>
+        <v>0.846322327071</v>
       </c>
       <c r="S14">
-        <v>3.185385910562717E-06</v>
+        <v>1.951353465115289E-05</v>
       </c>
       <c r="T14">
-        <v>3.185385910562717E-06</v>
+        <v>1.951353465115289E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H15">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I15">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J15">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.999305</v>
       </c>
       <c r="O15">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P15">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q15">
-        <v>0.06289413669</v>
+        <v>0.020734347865</v>
       </c>
       <c r="R15">
-        <v>0.56604723021</v>
+        <v>0.186609130785</v>
       </c>
       <c r="S15">
-        <v>1.106703410689942E-05</v>
+        <v>4.302620435876948E-06</v>
       </c>
       <c r="T15">
-        <v>1.106703410689942E-05</v>
+        <v>4.302620435876948E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H16">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I16">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J16">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N16">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O16">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P16">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q16">
-        <v>19.364368962876</v>
+        <v>4.805744136341001</v>
       </c>
       <c r="R16">
-        <v>174.279320665884</v>
+        <v>43.251697227069</v>
       </c>
       <c r="S16">
-        <v>0.003407410341396854</v>
+        <v>0.0009972482889380038</v>
       </c>
       <c r="T16">
-        <v>0.003407410341396854</v>
+        <v>0.0009972482889380036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H17">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I17">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J17">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N17">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O17">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P17">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q17">
-        <v>0.11587318365</v>
+        <v>0.03695910820422223</v>
       </c>
       <c r="R17">
-        <v>1.04285865285</v>
+        <v>0.332631973838</v>
       </c>
       <c r="S17">
-        <v>2.038938036227889E-05</v>
+        <v>7.669448553995981E-06</v>
       </c>
       <c r="T17">
-        <v>2.038938036227889E-05</v>
+        <v>7.66944855399598E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H18">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I18">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J18">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N18">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O18">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P18">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q18">
-        <v>6.341530483638</v>
+        <v>1.995927357981222</v>
       </c>
       <c r="R18">
-        <v>57.07377435274201</v>
+        <v>17.963346221831</v>
       </c>
       <c r="S18">
-        <v>0.001115874036053394</v>
+        <v>0.0004141783428584283</v>
       </c>
       <c r="T18">
-        <v>0.001115874036053394</v>
+        <v>0.0004141783428584283</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H19">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I19">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J19">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N19">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O19">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P19">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q19">
-        <v>23.01383397243</v>
+        <v>3.310144778515666</v>
       </c>
       <c r="R19">
-        <v>207.12450575187</v>
+        <v>29.791303006641</v>
       </c>
       <c r="S19">
-        <v>0.004049580754383728</v>
+        <v>0.0006868938759243143</v>
       </c>
       <c r="T19">
-        <v>0.004049580754383727</v>
+        <v>0.0006868938759243141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H20">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I20">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J20">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N20">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O20">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P20">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q20">
-        <v>1.363365037898222</v>
+        <v>22.146999356079</v>
       </c>
       <c r="R20">
-        <v>12.270285341084</v>
+        <v>199.322994204711</v>
       </c>
       <c r="S20">
-        <v>0.00023990165329629</v>
+        <v>0.004595762193402319</v>
       </c>
       <c r="T20">
-        <v>0.00023990165329629</v>
+        <v>0.004595762193402319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H21">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I21">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J21">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.999305</v>
       </c>
       <c r="O21">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P21">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q21">
-        <v>4.73675962606</v>
+        <v>4.883284024465</v>
       </c>
       <c r="R21">
-        <v>42.63083663454</v>
+        <v>43.949556220185</v>
       </c>
       <c r="S21">
-        <v>0.0008334939168681701</v>
+        <v>0.001013338725416167</v>
       </c>
       <c r="T21">
-        <v>0.0008334939168681701</v>
+        <v>0.001013338725416167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H22">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I22">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J22">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N22">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O22">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P22">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q22">
-        <v>1458.392879126113</v>
+        <v>1131.832730860781</v>
       </c>
       <c r="R22">
-        <v>13125.53591213502</v>
+        <v>10186.49457774703</v>
       </c>
       <c r="S22">
-        <v>0.2566230269460741</v>
+        <v>0.2348685702344374</v>
       </c>
       <c r="T22">
-        <v>0.2566230269460741</v>
+        <v>0.2348685702344374</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H23">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I23">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J23">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N23">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O23">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P23">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q23">
-        <v>8.726781969544444</v>
+        <v>8.704485129084222</v>
       </c>
       <c r="R23">
-        <v>78.5410377259</v>
+        <v>78.340366161758</v>
       </c>
       <c r="S23">
-        <v>0.001535589782819599</v>
+        <v>0.001806282784683316</v>
       </c>
       <c r="T23">
-        <v>0.001535589782819599</v>
+        <v>0.001806282784683315</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H24">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I24">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J24">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N24">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O24">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P24">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q24">
-        <v>477.6010474614121</v>
+        <v>470.0741129975412</v>
       </c>
       <c r="R24">
-        <v>4298.409427152709</v>
+        <v>4230.667016977871</v>
       </c>
       <c r="S24">
-        <v>0.08404006096464534</v>
+        <v>0.09754589332293669</v>
       </c>
       <c r="T24">
-        <v>0.08404006096464534</v>
+        <v>0.09754589332293669</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H25">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I25">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J25">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N25">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O25">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P25">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q25">
-        <v>1733.245821287931</v>
+        <v>779.5941893536756</v>
       </c>
       <c r="R25">
-        <v>15599.21239159138</v>
+        <v>7016.347704183079</v>
       </c>
       <c r="S25">
-        <v>0.3049869451961857</v>
+        <v>0.1617749404342815</v>
       </c>
       <c r="T25">
-        <v>0.3049869451961856</v>
+        <v>0.1617749404342815</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H26">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I26">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J26">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1918176666666667</v>
+        <v>3.022461</v>
       </c>
       <c r="N26">
-        <v>0.575453</v>
+        <v>9.067383</v>
       </c>
       <c r="O26">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="P26">
-        <v>0.0003700706761723729</v>
+        <v>0.009162117878737878</v>
       </c>
       <c r="Q26">
-        <v>0.02357535032166667</v>
+        <v>0.382958906031</v>
       </c>
       <c r="R26">
-        <v>0.212178152895</v>
+        <v>3.446630154279</v>
       </c>
       <c r="S26">
-        <v>4.148386794431844E-06</v>
+        <v>7.946846584798823E-05</v>
       </c>
       <c r="T26">
-        <v>4.148386794431844E-06</v>
+        <v>7.946846584798823E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H27">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I27">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J27">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.999305</v>
       </c>
       <c r="O27">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="P27">
-        <v>0.001285742107912907</v>
+        <v>0.002020193487531081</v>
       </c>
       <c r="Q27">
-        <v>0.081908193675</v>
+        <v>0.084440202385</v>
       </c>
       <c r="R27">
-        <v>0.7371737430750001</v>
+        <v>0.759961821465</v>
       </c>
       <c r="S27">
-        <v>1.441280253998425E-05</v>
+        <v>1.752233264131581E-05</v>
       </c>
       <c r="T27">
-        <v>1.441280253998425E-05</v>
+        <v>1.752233264131581E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H28">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I28">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J28">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>205.1875406666667</v>
+        <v>154.464279</v>
       </c>
       <c r="N28">
-        <v>615.562622</v>
+        <v>463.392837</v>
       </c>
       <c r="O28">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597139</v>
       </c>
       <c r="P28">
-        <v>0.3958649546530799</v>
+        <v>0.4682343071597138</v>
       </c>
       <c r="Q28">
-        <v>25.21857468563667</v>
+        <v>19.571293494509</v>
       </c>
       <c r="R28">
-        <v>226.96717217073</v>
+        <v>176.141641450581</v>
       </c>
       <c r="S28">
-        <v>0.004437533303763541</v>
+        <v>0.004061273009129192</v>
       </c>
       <c r="T28">
-        <v>0.00443753330376354</v>
+        <v>0.004061273009129191</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H29">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I29">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J29">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.227808333333333</v>
+        <v>1.187924666666667</v>
       </c>
       <c r="N29">
-        <v>3.683425</v>
+        <v>3.563774</v>
       </c>
       <c r="O29">
-        <v>0.002368790466606695</v>
+        <v>0.00360100786314874</v>
       </c>
       <c r="P29">
-        <v>0.002368790466606695</v>
+        <v>0.003601007863148739</v>
       </c>
       <c r="Q29">
-        <v>0.1509037832083333</v>
+        <v>0.1505152029402222</v>
       </c>
       <c r="R29">
-        <v>1.358134048875</v>
+        <v>1.354636826462</v>
       </c>
       <c r="S29">
-        <v>2.655346592733049E-05</v>
+        <v>3.12336704437155E-05</v>
       </c>
       <c r="T29">
-        <v>2.655346592733048E-05</v>
+        <v>3.12336704437155E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H30">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I30">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J30">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>67.19573700000001</v>
+        <v>64.15228766666667</v>
       </c>
       <c r="N30">
-        <v>201.587211</v>
+        <v>192.456863</v>
       </c>
       <c r="O30">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="P30">
-        <v>0.1296396325720308</v>
+        <v>0.1944676281324067</v>
       </c>
       <c r="Q30">
-        <v>8.258692055985001</v>
+        <v>8.128372840613222</v>
       </c>
       <c r="R30">
-        <v>74.32822850386501</v>
+        <v>73.15535556551899</v>
       </c>
       <c r="S30">
-        <v>0.001453223328471214</v>
+        <v>0.001686732725917329</v>
       </c>
       <c r="T30">
-        <v>0.001453223328471214</v>
+        <v>0.001686732725917329</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H31">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I31">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J31">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>243.8577783333334</v>
+        <v>106.393331</v>
       </c>
       <c r="N31">
-        <v>731.573335</v>
+        <v>319.179993</v>
       </c>
       <c r="O31">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784618</v>
       </c>
       <c r="P31">
-        <v>0.4704708095241973</v>
+        <v>0.3225147454784617</v>
       </c>
       <c r="Q31">
-        <v>29.97134024605834</v>
+        <v>13.48049607546767</v>
       </c>
       <c r="R31">
-        <v>269.742062214525</v>
+        <v>121.324464679209</v>
       </c>
       <c r="S31">
-        <v>0.005273843671112087</v>
+        <v>0.002797361087877464</v>
       </c>
       <c r="T31">
-        <v>0.005273843671112085</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.897355</v>
-      </c>
-      <c r="I32">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J32">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.1918176666666667</v>
-      </c>
-      <c r="N32">
-        <v>0.575453</v>
-      </c>
-      <c r="O32">
-        <v>0.0003700706761723729</v>
-      </c>
-      <c r="P32">
-        <v>0.0003700706761723729</v>
-      </c>
-      <c r="Q32">
-        <v>0.05737618075722222</v>
-      </c>
-      <c r="R32">
-        <v>0.516385626815</v>
-      </c>
-      <c r="S32">
-        <v>1.0096078629612E-05</v>
-      </c>
-      <c r="T32">
-        <v>1.0096078629612E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.897355</v>
-      </c>
-      <c r="I33">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J33">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.666435</v>
-      </c>
-      <c r="N33">
-        <v>1.999305</v>
-      </c>
-      <c r="O33">
-        <v>0.001285742107912907</v>
-      </c>
-      <c r="P33">
-        <v>0.001285742107912907</v>
-      </c>
-      <c r="Q33">
-        <v>0.199342926475</v>
-      </c>
-      <c r="R33">
-        <v>1.794086338275</v>
-      </c>
-      <c r="S33">
-        <v>3.507695760483725E-05</v>
-      </c>
-      <c r="T33">
-        <v>3.507695760483725E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.897355</v>
-      </c>
-      <c r="I34">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J34">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>205.1875406666667</v>
-      </c>
-      <c r="N34">
-        <v>615.562622</v>
-      </c>
-      <c r="O34">
-        <v>0.3958649546530799</v>
-      </c>
-      <c r="P34">
-        <v>0.3958649546530799</v>
-      </c>
-      <c r="Q34">
-        <v>61.37535518497889</v>
-      </c>
-      <c r="R34">
-        <v>552.37819666481</v>
-      </c>
-      <c r="S34">
-        <v>0.01079978492276889</v>
-      </c>
-      <c r="T34">
-        <v>0.01079978492276889</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.897355</v>
-      </c>
-      <c r="I35">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J35">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.227808333333333</v>
-      </c>
-      <c r="N35">
-        <v>3.683425</v>
-      </c>
-      <c r="O35">
-        <v>0.002368790466606695</v>
-      </c>
-      <c r="P35">
-        <v>0.002368790466606695</v>
-      </c>
-      <c r="Q35">
-        <v>0.3672599823194444</v>
-      </c>
-      <c r="R35">
-        <v>3.305339840875</v>
-      </c>
-      <c r="S35">
-        <v>6.462412816733697E-05</v>
-      </c>
-      <c r="T35">
-        <v>6.462412816733697E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.897355</v>
-      </c>
-      <c r="I36">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J36">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>67.19573700000001</v>
-      </c>
-      <c r="N36">
-        <v>201.587211</v>
-      </c>
-      <c r="O36">
-        <v>0.1296396325720308</v>
-      </c>
-      <c r="P36">
-        <v>0.1296396325720308</v>
-      </c>
-      <c r="Q36">
-        <v>20.099476858545</v>
-      </c>
-      <c r="R36">
-        <v>180.895291726905</v>
-      </c>
-      <c r="S36">
-        <v>0.003536762051775183</v>
-      </c>
-      <c r="T36">
-        <v>0.003536762051775183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.897355</v>
-      </c>
-      <c r="I37">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J37">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>243.8577783333334</v>
-      </c>
-      <c r="N37">
-        <v>731.573335</v>
-      </c>
-      <c r="O37">
-        <v>0.4704708095241973</v>
-      </c>
-      <c r="P37">
-        <v>0.4704708095241973</v>
-      </c>
-      <c r="Q37">
-        <v>72.94233222543612</v>
-      </c>
-      <c r="R37">
-        <v>656.480990028925</v>
-      </c>
-      <c r="S37">
-        <v>0.01283514364072736</v>
-      </c>
-      <c r="T37">
-        <v>0.01283514364072735</v>
+        <v>0.002797361087877463</v>
       </c>
     </row>
   </sheetData>
